--- a/builds/species_lists/summerplace_species_list.xlsx
+++ b/builds/species_lists/summerplace_species_list.xlsx
@@ -2090,7 +2090,7 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
